--- a/zhmm.xlsx
+++ b/zhmm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A5CDED3-6C57-4ED8-B470-4528487BCD31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77C9AC-20EF-48DE-9F85-802219DCE6A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="有用" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>q7758258</t>
   </si>
@@ -233,130 +233,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ab778899</t>
-  </si>
-  <si>
-    <t>18065570984</t>
-  </si>
-  <si>
-    <t>17350073760</t>
-  </si>
-  <si>
-    <t>18150979426</t>
-  </si>
-  <si>
-    <t>liu112233m</t>
-  </si>
-  <si>
-    <t>17074476297</t>
-  </si>
-  <si>
-    <t>17074476067</t>
-  </si>
-  <si>
-    <t>17074476070</t>
-  </si>
-  <si>
-    <t>17074476071</t>
-  </si>
-  <si>
-    <t>17074476081</t>
-  </si>
-  <si>
-    <t>17074476016</t>
-  </si>
-  <si>
-    <t>17074475961</t>
-  </si>
-  <si>
-    <t>17074475962</t>
-  </si>
-  <si>
-    <t>17074475938</t>
-  </si>
-  <si>
-    <t>17074475927</t>
-  </si>
-  <si>
-    <t>ab778899</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu112233m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vygb04983@163.com</t>
-  </si>
-  <si>
-    <t>csuhx9651</t>
-  </si>
-  <si>
-    <t>cdzs98378@163.com</t>
-  </si>
-  <si>
-    <t>svphin5610</t>
-  </si>
-  <si>
-    <t>etow41796@163.com</t>
-  </si>
-  <si>
-    <t>ueedb4793</t>
-  </si>
-  <si>
-    <t>dxpm56097@163.com</t>
-  </si>
-  <si>
-    <t>vanrc2183</t>
-  </si>
-  <si>
-    <t>igeg82838@163.com</t>
-  </si>
-  <si>
-    <t>rulln3391</t>
-  </si>
-  <si>
-    <t>vkgv81179@163.com</t>
-  </si>
-  <si>
-    <t>uvygw3602</t>
-  </si>
-  <si>
-    <t>jxor18788@163.com</t>
-  </si>
-  <si>
-    <t>cafddz7239</t>
-  </si>
-  <si>
-    <t>ieoy36263@163.com</t>
-  </si>
-  <si>
-    <t>sndytc5351</t>
-  </si>
-  <si>
-    <t>yuuq49498@163.com</t>
-  </si>
-  <si>
-    <t>hnkiu6885</t>
-  </si>
-  <si>
-    <t>liu112233m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbbs81933@163.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bqacl6286</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>zhanghao</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mima</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ausar109@aliyun.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple7342001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,353 +631,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72DFA05-975D-48FA-9218-4BAD1872EDF7}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>17359300036</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>17359305287</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>17029938360</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>17029938330</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>17359300341</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>17350074689</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>17359300942</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>17359302664</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>17350073319</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>17759637463</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>13106354594</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>17029938303</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17074476216</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>17074476305</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>17074476072</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>17074476044</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>17074476035</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1" xr:uid="{4BD9D531-F0FA-44C4-B255-7DA235CC8703}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1F475B8A-EABB-44D6-B345-ABAB7306E8D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
